--- a/biology/Médecine/Augustin_Lippi/Augustin_Lippi.xlsx
+++ b/biology/Médecine/Augustin_Lippi/Augustin_Lippi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Augustin Lippi (né en 1678 à Paris ; mort le 10 novembre 1705 à Sannar) est un médecin, botaniste et explorateur français d'origine italienne.
 </t>
@@ -511,13 +523,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1703, Fagon, surintendant du Jardin du roi, demande à Lippi de se joindre à la mission Lenoir du Roule qui part en Éthiopie pour tenter de nouer des liens diplomatiques avec le Négus Yasous le Grand.
 Il explora le Soudan, situé entre la Haute-Égypte et la Nubie, en 1704. Il y périt l'année suivante, à vingt-sept ans.
 Augustin Lippi fut massacré à Sannar avec l'ambassadeur que Louis XIV envoyait au Négus d'Abyssinie.
 En Égypte, avant de s'enfoncer dans l'Afrique orientale, Lippi prend la précaution d'envoyer sa récolte d'échantillons de plantes en France.
-Ultérieurement, elles seront incorporées dans l'herbier historique (codé P-JU) d'Antoine de Jussieu conservé à Paris, au Muséum national d'histoire naturelle[1].
+Ultérieurement, elles seront incorporées dans l'herbier historique (codé P-JU) d'Antoine de Jussieu conservé à Paris, au Muséum national d'histoire naturelle.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Linné dédiera en honneur à Lippi le genre Lippia de la famille des Verbénacées[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Linné dédiera en honneur à Lippi le genre Lippia de la famille des Verbénacées.
 </t>
         </is>
       </c>
